--- a/data/women/W_2020_01_Letnany.xlsx
+++ b/data/women/W_2020_01_Letnany.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0788DE-0753-4E0B-970B-5ED816C860C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C1E8D2-9882-4350-A837-7585CA87618C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10164" yWindow="-15348" windowWidth="17052" windowHeight="13464" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="-15240" windowWidth="15228" windowHeight="14256" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initiation" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -354,13 +354,43 @@
     <t>Pool</t>
   </si>
   <si>
-    <t>Eliminace_</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>GER</t>
+  </si>
+  <si>
+    <t>Eliminace_64</t>
+  </si>
+  <si>
+    <t>Eliminace_32</t>
+  </si>
+  <si>
+    <t>Eliminace_16_A</t>
+  </si>
+  <si>
+    <t>Eliminace_8_A</t>
+  </si>
+  <si>
+    <t>Eliminace_16_B</t>
+  </si>
+  <si>
+    <t>Eliminace_16_AB</t>
+  </si>
+  <si>
+    <t>Eliminace_8_AB</t>
+  </si>
+  <si>
+    <t>Eliminace_8_B</t>
+  </si>
+  <si>
+    <t>Eliminace_8</t>
+  </si>
+  <si>
+    <t>Eliminace_4</t>
+  </si>
+  <si>
+    <t>Eliminace_2</t>
   </si>
 </sst>
 </file>
@@ -438,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -469,6 +499,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -754,7 +791,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1193,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="4">
@@ -3010,7 +3047,7 @@
         <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -4237,7 +4274,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="4">
         <v>36526</v>
@@ -4835,7 +4872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A93ADA4-6FC1-44A1-B0AE-1F99190B4493}">
   <dimension ref="A1:K260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -4983,7 +5020,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="11">
         <v>2</v>
@@ -5018,7 +5055,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="11">
         <v>2</v>
@@ -5123,7 +5160,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" s="11">
         <v>4</v>
@@ -5193,7 +5230,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" s="11">
         <v>1</v>
@@ -5228,7 +5265,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" s="11">
         <v>1</v>
@@ -5298,7 +5335,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="12">
         <v>2</v>
@@ -5333,7 +5370,7 @@
         <v>30</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" s="11">
         <v>2</v>
@@ -5368,7 +5405,7 @@
         <v>50</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" s="11">
         <v>2</v>
@@ -5403,7 +5440,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="11">
         <v>1</v>
@@ -5438,7 +5475,7 @@
         <v>27</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" s="11">
         <v>3</v>
@@ -5508,7 +5545,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="12">
         <v>2</v>
@@ -5858,7 +5895,7 @@
         <v>14</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J29" s="11">
         <v>4</v>
@@ -5928,7 +5965,7 @@
         <v>12</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J31" s="12">
         <v>4</v>
@@ -5963,7 +6000,7 @@
         <v>30</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" s="11">
         <v>4</v>
@@ -5998,7 +6035,7 @@
         <v>50</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" s="11">
         <v>1</v>
@@ -6033,7 +6070,7 @@
         <v>40</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J34" s="11">
         <v>2</v>
@@ -6068,7 +6105,7 @@
         <v>14</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
@@ -6103,7 +6140,7 @@
         <v>27</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" s="11">
         <v>1</v>
@@ -6138,7 +6175,7 @@
         <v>12</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J37" s="12">
         <v>1</v>
@@ -6173,7 +6210,7 @@
         <v>30</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38" s="11">
         <v>1</v>
@@ -6278,7 +6315,7 @@
         <v>14</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J41" s="11">
         <v>4</v>
@@ -6488,7 +6525,7 @@
         <v>50</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" s="15">
         <v>3</v>
@@ -6523,7 +6560,7 @@
         <v>20</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J48" s="15">
         <v>4</v>
@@ -6593,7 +6630,7 @@
         <v>12</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50" s="15">
         <v>3</v>
@@ -6628,7 +6665,7 @@
         <v>27</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" s="15">
         <v>2</v>
@@ -6698,7 +6735,7 @@
         <v>50</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J53" s="15">
         <v>1</v>
@@ -6733,7 +6770,7 @@
         <v>20</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J54" s="15">
         <v>2</v>
@@ -6768,7 +6805,7 @@
         <v>14</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" s="17">
         <v>3</v>
@@ -6803,7 +6840,7 @@
         <v>12</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J56" s="15">
         <v>4</v>
@@ -6943,7 +6980,7 @@
         <v>20</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J60" s="15">
         <v>4</v>
@@ -6978,7 +7015,7 @@
         <v>14</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J61" s="17">
         <v>4</v>
@@ -7013,7 +7050,7 @@
         <v>12</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J62" s="15">
         <v>1</v>
@@ -7048,7 +7085,7 @@
         <v>48</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" s="15">
         <v>4</v>
@@ -7083,7 +7120,7 @@
         <v>27</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" s="15">
         <v>2</v>
@@ -7153,7 +7190,7 @@
         <v>20</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J66" s="15">
         <v>0</v>
@@ -7188,7 +7225,7 @@
         <v>14</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J67" s="17">
         <v>1</v>
@@ -7293,7 +7330,7 @@
         <v>27</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J70" s="15">
         <v>4</v>
@@ -7328,7 +7365,7 @@
         <v>34</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J71" s="15">
         <v>3</v>
@@ -7363,7 +7400,7 @@
         <v>20</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J72" s="15">
         <v>4</v>
@@ -7398,7 +7435,7 @@
         <v>14</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J73" s="17">
         <v>3</v>
@@ -7608,7 +7645,7 @@
         <v>14</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J79" s="17">
         <v>2</v>
@@ -7643,7 +7680,7 @@
         <v>12</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J80" s="15">
         <v>4</v>
@@ -7853,7 +7890,7 @@
         <v>24</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J86" s="11">
         <v>4</v>
@@ -7888,7 +7925,7 @@
         <v>54</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J87" s="11">
         <v>4</v>
@@ -7923,7 +7960,7 @@
         <v>14</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J88" s="11">
         <v>0</v>
@@ -7958,7 +7995,7 @@
         <v>12</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J89" s="11">
         <v>0</v>
@@ -7993,7 +8030,7 @@
         <v>20</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J90" s="11">
         <v>1</v>
@@ -8133,7 +8170,7 @@
         <v>14</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J94" s="11">
         <v>2</v>
@@ -8168,7 +8205,7 @@
         <v>12</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J95" s="11">
         <v>3</v>
@@ -8203,7 +8240,7 @@
         <v>20</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J96" s="11">
         <v>1</v>
@@ -8308,7 +8345,7 @@
         <v>24</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J99" s="11">
         <v>4</v>
@@ -8343,7 +8380,7 @@
         <v>14</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J100" s="11">
         <v>3</v>
@@ -8378,7 +8415,7 @@
         <v>12</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J101" s="11">
         <v>1</v>
@@ -8413,7 +8450,7 @@
         <v>20</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J102" s="11">
         <v>4</v>
@@ -8588,7 +8625,7 @@
         <v>12</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J107" s="11">
         <v>3</v>
@@ -9008,7 +9045,7 @@
         <v>14</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J119" s="11">
         <v>2</v>
@@ -9043,7 +9080,7 @@
         <v>12</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J120" s="11">
         <v>1</v>
@@ -9113,7 +9150,7 @@
         <v>14</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J122" s="11">
         <v>2</v>
@@ -9148,7 +9185,7 @@
         <v>24</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J123" s="11">
         <v>4</v>
@@ -9183,7 +9220,7 @@
         <v>54</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J124" s="11">
         <v>4</v>
@@ -9218,7 +9255,7 @@
         <v>14</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J125" s="11">
         <v>1</v>
@@ -9253,7 +9290,7 @@
         <v>12</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J126" s="11">
         <v>4</v>
@@ -9288,7 +9325,7 @@
         <v>20</v>
       </c>
       <c r="I127" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J127" s="12">
         <v>3</v>
@@ -9323,7 +9360,7 @@
         <v>30</v>
       </c>
       <c r="I128" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J128" s="15">
         <v>2</v>
@@ -9358,7 +9395,7 @@
         <v>20</v>
       </c>
       <c r="I129" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J129" s="15">
         <v>4</v>
@@ -9393,7 +9430,7 @@
         <v>14</v>
       </c>
       <c r="I130" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J130" s="15">
         <v>2</v>
@@ -9498,7 +9535,7 @@
         <v>34</v>
       </c>
       <c r="I133" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J133" s="17">
         <v>3</v>
@@ -9568,7 +9605,7 @@
         <v>20</v>
       </c>
       <c r="I135" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J135" s="15">
         <v>4</v>
@@ -9673,7 +9710,7 @@
         <v>50</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J138" s="15">
         <v>4</v>
@@ -9813,7 +9850,7 @@
         <v>14</v>
       </c>
       <c r="I142" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J142" s="15">
         <v>3</v>
@@ -9988,7 +10025,7 @@
         <v>30</v>
       </c>
       <c r="I147" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J147" s="15">
         <v>4</v>
@@ -10128,7 +10165,7 @@
         <v>34</v>
       </c>
       <c r="I151" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J151" s="17">
         <v>4</v>
@@ -10163,7 +10200,7 @@
         <v>14</v>
       </c>
       <c r="I152" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J152" s="15">
         <v>1</v>
@@ -10198,7 +10235,7 @@
         <v>30</v>
       </c>
       <c r="I153" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J153" s="15">
         <v>2</v>
@@ -10233,7 +10270,7 @@
         <v>20</v>
       </c>
       <c r="I154" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J154" s="15">
         <v>2</v>
@@ -10268,7 +10305,7 @@
         <v>14</v>
       </c>
       <c r="I155" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J155" s="15">
         <v>1</v>
@@ -10303,7 +10340,7 @@
         <v>50</v>
       </c>
       <c r="I156" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J156" s="15">
         <v>2</v>
@@ -10338,7 +10375,7 @@
         <v>34</v>
       </c>
       <c r="I157" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J157" s="17">
         <v>2</v>
@@ -10373,7 +10410,7 @@
         <v>14</v>
       </c>
       <c r="I158" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J158" s="15">
         <v>2</v>
@@ -10443,7 +10480,7 @@
         <v>20</v>
       </c>
       <c r="I160" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J160" s="15">
         <v>2</v>
@@ -10478,7 +10515,7 @@
         <v>14</v>
       </c>
       <c r="I161" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J161" s="15">
         <v>1</v>
@@ -10548,7 +10585,7 @@
         <v>34</v>
       </c>
       <c r="I163" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J163" s="17">
         <v>2</v>
@@ -10618,7 +10655,7 @@
         <v>30</v>
       </c>
       <c r="I165" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J165" s="15">
         <v>3</v>
@@ -10653,7 +10690,7 @@
         <v>20</v>
       </c>
       <c r="I166" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J166" s="15">
         <v>3</v>
@@ -10793,7 +10830,7 @@
         <v>40</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J170" s="11">
         <v>1</v>
@@ -10863,7 +10900,7 @@
         <v>14</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J172" s="11">
         <v>0</v>
@@ -10898,7 +10935,7 @@
         <v>12</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J173" s="11">
         <v>2</v>
@@ -10933,7 +10970,7 @@
         <v>20</v>
       </c>
       <c r="I174" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J174" s="12">
         <v>0</v>
@@ -11038,7 +11075,7 @@
         <v>14</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J177" s="11">
         <v>2</v>
@@ -11073,7 +11110,7 @@
         <v>12</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J178" s="11">
         <v>3</v>
@@ -11143,7 +11180,7 @@
         <v>48</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J180" s="11">
         <v>2</v>
@@ -11178,7 +11215,7 @@
         <v>40</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J181" s="11">
         <v>4</v>
@@ -11213,7 +11250,7 @@
         <v>14</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J182" s="11">
         <v>4</v>
@@ -11248,7 +11285,7 @@
         <v>12</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J183" s="11">
         <v>1</v>
@@ -11598,7 +11635,7 @@
         <v>14</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J193" s="11">
         <v>4</v>
@@ -11633,7 +11670,7 @@
         <v>20</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J194" s="12">
         <v>2</v>
@@ -11703,7 +11740,7 @@
         <v>40</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J196" s="11">
         <v>3</v>
@@ -11738,7 +11775,7 @@
         <v>57</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J197" s="11">
         <v>4</v>
@@ -11773,7 +11810,7 @@
         <v>14</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J198" s="11">
         <v>1</v>
@@ -11913,7 +11950,7 @@
         <v>12</v>
       </c>
       <c r="I202" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J202" s="15">
         <v>3</v>
@@ -11948,7 +11985,7 @@
         <v>24</v>
       </c>
       <c r="I203" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J203" s="15">
         <v>3</v>
@@ -12018,7 +12055,7 @@
         <v>27</v>
       </c>
       <c r="I205" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J205" s="15">
         <v>2</v>
@@ -12088,7 +12125,7 @@
         <v>12</v>
       </c>
       <c r="I207" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J207" s="15">
         <v>0</v>
@@ -12123,7 +12160,7 @@
         <v>24</v>
       </c>
       <c r="I208" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J208" s="15">
         <v>1</v>
@@ -12193,7 +12230,7 @@
         <v>27</v>
       </c>
       <c r="I210" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J210" s="15">
         <v>2</v>
@@ -12228,7 +12265,7 @@
         <v>48</v>
       </c>
       <c r="I211" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J211" s="15">
         <v>4</v>
@@ -12263,7 +12300,7 @@
         <v>12</v>
       </c>
       <c r="I212" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J212" s="15">
         <v>1</v>
@@ -12298,7 +12335,7 @@
         <v>24</v>
       </c>
       <c r="I213" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J213" s="15">
         <v>1</v>
@@ -12333,7 +12370,7 @@
         <v>14</v>
       </c>
       <c r="I214" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J214" s="17">
         <v>3</v>
@@ -12508,7 +12545,7 @@
         <v>14</v>
       </c>
       <c r="I219" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J219" s="17">
         <v>4</v>
@@ -12648,7 +12685,7 @@
         <v>12</v>
       </c>
       <c r="I223" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J223" s="15">
         <v>4</v>
@@ -12718,7 +12755,7 @@
         <v>27</v>
       </c>
       <c r="I225" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J225" s="15">
         <v>2</v>
@@ -12753,7 +12790,7 @@
         <v>48</v>
       </c>
       <c r="I226" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J226" s="15">
         <v>4</v>
@@ -12858,7 +12895,7 @@
         <v>24</v>
       </c>
       <c r="I229" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J229" s="17">
         <v>4</v>
@@ -12893,7 +12930,7 @@
         <v>14</v>
       </c>
       <c r="I230" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J230" s="11">
         <v>4</v>
@@ -12963,7 +13000,7 @@
         <v>27</v>
       </c>
       <c r="I232" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J232" s="11">
         <v>3</v>
@@ -12998,7 +13035,7 @@
         <v>24</v>
       </c>
       <c r="I233" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J233" s="11">
         <v>4</v>
@@ -13243,7 +13280,7 @@
         <v>14</v>
       </c>
       <c r="I240" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J240" s="11">
         <v>3</v>
@@ -13278,7 +13315,7 @@
         <v>14</v>
       </c>
       <c r="I241" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J241" s="11">
         <v>3</v>
@@ -13348,7 +13385,7 @@
         <v>24</v>
       </c>
       <c r="I243" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J243" s="11">
         <v>2</v>
@@ -13453,7 +13490,7 @@
         <v>14</v>
       </c>
       <c r="I246" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J246" s="11">
         <v>2</v>
@@ -13488,7 +13525,7 @@
         <v>20</v>
       </c>
       <c r="I247" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J247" s="11">
         <v>4</v>
@@ -13523,7 +13560,7 @@
         <v>24</v>
       </c>
       <c r="I248" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J248" s="11">
         <v>3</v>
@@ -13558,7 +13595,7 @@
         <v>57</v>
       </c>
       <c r="I249" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J249" s="12">
         <v>1</v>
@@ -13628,7 +13665,7 @@
         <v>14</v>
       </c>
       <c r="I251" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J251" s="11">
         <v>2</v>
@@ -13768,7 +13805,7 @@
         <v>14</v>
       </c>
       <c r="I255" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J255" s="11">
         <v>2</v>
@@ -13803,7 +13840,7 @@
         <v>14</v>
       </c>
       <c r="I256" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J256" s="11">
         <v>3</v>
@@ -13838,7 +13875,7 @@
         <v>20</v>
       </c>
       <c r="I257" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J257" s="11">
         <v>1</v>
@@ -13908,7 +13945,7 @@
         <v>24</v>
       </c>
       <c r="I259" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J259" s="12">
         <v>3</v>
@@ -13927,22 +13964,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA50A8B-6F5E-42E4-958A-31D28A702E8D}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -13987,11 +14025,32 @@
       <c r="B2" t="s">
         <v>80</v>
       </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
       <c r="E2" t="s">
         <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="13">
+        <v>15</v>
+      </c>
+      <c r="K2" s="13">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -14001,8 +14060,32 @@
       <c r="B3" t="s">
         <v>80</v>
       </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
       <c r="E3" t="s">
         <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="13">
+        <v>6</v>
+      </c>
+      <c r="K3" s="13">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -14012,8 +14095,32 @@
       <c r="B4" t="s">
         <v>80</v>
       </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" t="s">
         <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="13">
+        <v>3</v>
+      </c>
+      <c r="K4" s="13">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -14023,8 +14130,32 @@
       <c r="B5" t="s">
         <v>80</v>
       </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" t="s">
         <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="13">
+        <v>15</v>
+      </c>
+      <c r="K5" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -14034,8 +14165,32 @@
       <c r="B6" t="s">
         <v>80</v>
       </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" t="s">
         <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="13">
+        <v>15</v>
+      </c>
+      <c r="K6" s="13">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -14045,10 +14200,4935 @@
       <c r="B7" t="s">
         <v>80</v>
       </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
       <c r="E7" t="s">
         <v>81</v>
       </c>
-    </row>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="13">
+        <v>9</v>
+      </c>
+      <c r="K7" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="13">
+        <v>9</v>
+      </c>
+      <c r="K8" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="13">
+        <v>15</v>
+      </c>
+      <c r="K9" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="13">
+        <v>15</v>
+      </c>
+      <c r="K10" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="13">
+        <v>10</v>
+      </c>
+      <c r="K11" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="13">
+        <v>6</v>
+      </c>
+      <c r="K12" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="13">
+        <v>15</v>
+      </c>
+      <c r="K13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="13">
+        <v>3</v>
+      </c>
+      <c r="K14" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="13">
+        <v>15</v>
+      </c>
+      <c r="K15" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="13">
+        <v>10</v>
+      </c>
+      <c r="K16" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="13">
+        <v>15</v>
+      </c>
+      <c r="K17" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="13">
+        <v>15</v>
+      </c>
+      <c r="K18" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="13">
+        <v>4</v>
+      </c>
+      <c r="K19" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="13">
+        <v>15</v>
+      </c>
+      <c r="K20" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="13">
+        <v>12</v>
+      </c>
+      <c r="K21" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="13">
+        <v>15</v>
+      </c>
+      <c r="K22" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="13">
+        <v>13</v>
+      </c>
+      <c r="K24" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="13">
+        <v>15</v>
+      </c>
+      <c r="K25" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="13">
+        <v>15</v>
+      </c>
+      <c r="K26" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="13">
+        <v>8</v>
+      </c>
+      <c r="K27" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="13">
+        <v>10</v>
+      </c>
+      <c r="K28" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="19">
+        <v>15</v>
+      </c>
+      <c r="K29" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="13">
+        <v>15</v>
+      </c>
+      <c r="K30" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="13">
+        <v>7</v>
+      </c>
+      <c r="K31" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="13">
+        <v>9</v>
+      </c>
+      <c r="K32" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="13">
+        <v>15</v>
+      </c>
+      <c r="K33" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="13">
+        <v>15</v>
+      </c>
+      <c r="K34" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="13">
+        <v>11</v>
+      </c>
+      <c r="K35" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="13">
+        <v>11</v>
+      </c>
+      <c r="K36" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="13">
+        <v>15</v>
+      </c>
+      <c r="K37" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="13">
+        <v>11</v>
+      </c>
+      <c r="K38" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="13">
+        <v>15</v>
+      </c>
+      <c r="K39" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="13">
+        <v>15</v>
+      </c>
+      <c r="K40" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J41" s="13">
+        <v>10</v>
+      </c>
+      <c r="K41" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" s="13">
+        <v>15</v>
+      </c>
+      <c r="K42" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" s="13">
+        <v>12</v>
+      </c>
+      <c r="K43" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" s="13">
+        <v>5</v>
+      </c>
+      <c r="K44" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="13">
+        <v>15</v>
+      </c>
+      <c r="K45" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="13">
+        <v>15</v>
+      </c>
+      <c r="K46" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J47" s="13">
+        <v>11</v>
+      </c>
+      <c r="K47" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J48" s="13">
+        <v>13</v>
+      </c>
+      <c r="K48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J49" s="13">
+        <v>15</v>
+      </c>
+      <c r="K49" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J50" s="13">
+        <v>14</v>
+      </c>
+      <c r="K50" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J51" s="13">
+        <v>10</v>
+      </c>
+      <c r="K51" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J52" s="13">
+        <v>12</v>
+      </c>
+      <c r="K52" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J53" s="13">
+        <v>15</v>
+      </c>
+      <c r="K53" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J54" s="13">
+        <v>15</v>
+      </c>
+      <c r="K54" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" s="13">
+        <v>4</v>
+      </c>
+      <c r="K55" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J56" s="13">
+        <v>4</v>
+      </c>
+      <c r="K56" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J57" s="13">
+        <v>15</v>
+      </c>
+      <c r="K57" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J58" s="13">
+        <v>15</v>
+      </c>
+      <c r="K58" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J59" s="13">
+        <v>8</v>
+      </c>
+      <c r="K59" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J60" s="13">
+        <v>5</v>
+      </c>
+      <c r="K60" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J61" s="19">
+        <v>15</v>
+      </c>
+      <c r="K61" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J62" s="13">
+        <v>15</v>
+      </c>
+      <c r="K62" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J63" s="13">
+        <v>7</v>
+      </c>
+      <c r="K63" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J64" s="13">
+        <v>15</v>
+      </c>
+      <c r="K64" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J65" s="13">
+        <v>9</v>
+      </c>
+      <c r="K65" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" s="13">
+        <v>8</v>
+      </c>
+      <c r="K66" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>81</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J67" s="13">
+        <v>15</v>
+      </c>
+      <c r="K67" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J68" s="13">
+        <v>5</v>
+      </c>
+      <c r="K68" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="13">
+        <v>15</v>
+      </c>
+      <c r="K69" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s">
+        <v>30</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J70" s="13">
+        <v>15</v>
+      </c>
+      <c r="K70" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J71" s="13">
+        <v>8</v>
+      </c>
+      <c r="K71" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J72" s="13">
+        <v>8</v>
+      </c>
+      <c r="K72" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J73" s="13">
+        <v>15</v>
+      </c>
+      <c r="K73" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G74" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J74" s="13">
+        <v>14</v>
+      </c>
+      <c r="K74" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J75" s="13">
+        <v>15</v>
+      </c>
+      <c r="K75" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J76" s="13">
+        <v>10</v>
+      </c>
+      <c r="K76" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J77" s="19">
+        <v>15</v>
+      </c>
+      <c r="K77" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J78" s="13">
+        <v>10</v>
+      </c>
+      <c r="K78" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J79" s="13">
+        <v>15</v>
+      </c>
+      <c r="K79" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J80" s="13">
+        <v>15</v>
+      </c>
+      <c r="K80" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G81" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J81" s="13">
+        <v>14</v>
+      </c>
+      <c r="K81" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J82" s="13">
+        <v>15</v>
+      </c>
+      <c r="K82" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J83" s="13">
+        <v>13</v>
+      </c>
+      <c r="K83" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J84" s="13">
+        <v>13</v>
+      </c>
+      <c r="K84" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J85" s="19">
+        <v>15</v>
+      </c>
+      <c r="K85" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" t="s">
+        <v>81</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J86" s="13">
+        <v>15</v>
+      </c>
+      <c r="K86" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" t="s">
+        <v>81</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G87" t="s">
+        <v>53</v>
+      </c>
+      <c r="H87" t="s">
+        <v>54</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J87" s="13">
+        <v>14</v>
+      </c>
+      <c r="K87" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>81</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J88" s="13">
+        <v>14</v>
+      </c>
+      <c r="K88" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J89" s="13">
+        <v>15</v>
+      </c>
+      <c r="K89" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B90" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>81</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J90" s="13">
+        <v>15</v>
+      </c>
+      <c r="K90" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J91" s="13">
+        <v>10</v>
+      </c>
+      <c r="K91" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" t="s">
+        <v>81</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G92" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J92" s="13">
+        <v>15</v>
+      </c>
+      <c r="K92" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B93" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" t="s">
+        <v>81</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J93" s="13">
+        <v>9</v>
+      </c>
+      <c r="K93" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" t="s">
+        <v>81</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J94" s="13">
+        <v>15</v>
+      </c>
+      <c r="K94" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" t="s">
+        <v>81</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G95" t="s">
+        <v>49</v>
+      </c>
+      <c r="H95" t="s">
+        <v>50</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J95" s="13">
+        <v>6</v>
+      </c>
+      <c r="K95" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B96" t="s">
+        <v>80</v>
+      </c>
+      <c r="C96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" t="s">
+        <v>81</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J96" s="13">
+        <v>15</v>
+      </c>
+      <c r="K96" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B97" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" t="s">
+        <v>81</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G97" t="s">
+        <v>65</v>
+      </c>
+      <c r="H97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J97" s="13">
+        <v>14</v>
+      </c>
+      <c r="K97" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B98" t="s">
+        <v>80</v>
+      </c>
+      <c r="C98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>81</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G98" t="s">
+        <v>83</v>
+      </c>
+      <c r="H98" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J98" s="13">
+        <v>12</v>
+      </c>
+      <c r="K98" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" t="s">
+        <v>81</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G99" t="s">
+        <v>44</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J99" s="13">
+        <v>15</v>
+      </c>
+      <c r="K99" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B100" t="s">
+        <v>80</v>
+      </c>
+      <c r="C100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>81</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G100" t="s">
+        <v>55</v>
+      </c>
+      <c r="H100" t="s">
+        <v>50</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J100" s="13">
+        <v>15</v>
+      </c>
+      <c r="K100" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E101" t="s">
+        <v>81</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J101" s="19">
+        <v>10</v>
+      </c>
+      <c r="K101" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B102" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" t="s">
+        <v>81</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G102" t="s">
+        <v>65</v>
+      </c>
+      <c r="H102" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J102" s="13">
+        <v>10</v>
+      </c>
+      <c r="K102" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B103" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" t="s">
+        <v>81</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J103" s="13">
+        <v>15</v>
+      </c>
+      <c r="K103" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B104" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>81</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J104" s="13">
+        <v>15</v>
+      </c>
+      <c r="K104" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>81</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G105" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J105" s="13">
+        <v>10</v>
+      </c>
+      <c r="K105" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B106" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" t="s">
+        <v>81</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G106" t="s">
+        <v>83</v>
+      </c>
+      <c r="H106" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J106" s="13">
+        <v>15</v>
+      </c>
+      <c r="K106" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B107" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G107" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" t="s">
+        <v>30</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J107" s="13">
+        <v>8</v>
+      </c>
+      <c r="K107" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B108" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>81</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G108" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J108" s="13">
+        <v>14</v>
+      </c>
+      <c r="K108" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B109" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>81</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J109" s="13">
+        <v>15</v>
+      </c>
+      <c r="K109" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B110" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" t="s">
+        <v>81</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G110" t="s">
+        <v>49</v>
+      </c>
+      <c r="H110" t="s">
+        <v>50</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J110" s="13">
+        <v>15</v>
+      </c>
+      <c r="K110" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B111" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" t="s">
+        <v>50</v>
+      </c>
+      <c r="E111" t="s">
+        <v>81</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" t="s">
+        <v>24</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J111" s="13">
+        <v>12</v>
+      </c>
+      <c r="K111" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B112" t="s">
+        <v>80</v>
+      </c>
+      <c r="C112" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" t="s">
+        <v>81</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J112" s="13">
+        <v>15</v>
+      </c>
+      <c r="K112" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B113" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>81</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G113" t="s">
+        <v>38</v>
+      </c>
+      <c r="H113" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J113" s="13">
+        <v>14</v>
+      </c>
+      <c r="K113" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B114" t="s">
+        <v>80</v>
+      </c>
+      <c r="C114" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>81</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J114" s="13">
+        <v>10</v>
+      </c>
+      <c r="K114" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B115" t="s">
+        <v>80</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>81</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G115" t="s">
+        <v>32</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J115" s="13">
+        <v>12</v>
+      </c>
+      <c r="K115" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B116" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" t="s">
+        <v>53</v>
+      </c>
+      <c r="D116" t="s">
+        <v>54</v>
+      </c>
+      <c r="E116" t="s">
+        <v>81</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G116" t="s">
+        <v>21</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J116" s="13">
+        <v>8</v>
+      </c>
+      <c r="K116" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" t="s">
+        <v>81</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J117" s="19">
+        <v>15</v>
+      </c>
+      <c r="K117" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B118" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118" t="s">
+        <v>65</v>
+      </c>
+      <c r="D118" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118" t="s">
+        <v>81</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G118" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J118" s="13">
+        <v>15</v>
+      </c>
+      <c r="K118" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B119" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" t="s">
+        <v>81</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G119" t="s">
+        <v>65</v>
+      </c>
+      <c r="H119" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J119" s="13">
+        <v>14</v>
+      </c>
+      <c r="K119" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B120" t="s">
+        <v>80</v>
+      </c>
+      <c r="C120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" t="s">
+        <v>81</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J120" s="13">
+        <v>15</v>
+      </c>
+      <c r="K120" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B121" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>81</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G121" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" t="s">
+        <v>30</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J121" s="13">
+        <v>8</v>
+      </c>
+      <c r="K121" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B122" t="s">
+        <v>80</v>
+      </c>
+      <c r="C122" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" t="s">
+        <v>81</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G122" t="s">
+        <v>38</v>
+      </c>
+      <c r="H122" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J122" s="13">
+        <v>14</v>
+      </c>
+      <c r="K122" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B123" t="s">
+        <v>80</v>
+      </c>
+      <c r="C123" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" t="s">
+        <v>81</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G123" t="s">
+        <v>25</v>
+      </c>
+      <c r="H123" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J123" s="13">
+        <v>15</v>
+      </c>
+      <c r="K123" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B124" t="s">
+        <v>80</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>81</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G124" t="s">
+        <v>21</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J124" s="13">
+        <v>15</v>
+      </c>
+      <c r="K124" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B125" t="s">
+        <v>80</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" t="s">
+        <v>81</v>
+      </c>
+      <c r="F125" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J125" s="19">
+        <v>11</v>
+      </c>
+      <c r="K125" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B126" t="s">
+        <v>80</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>81</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G126" t="s">
+        <v>65</v>
+      </c>
+      <c r="H126" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J126" s="13">
+        <v>15</v>
+      </c>
+      <c r="K126" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B127" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" t="s">
+        <v>65</v>
+      </c>
+      <c r="D127" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" t="s">
+        <v>81</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J127" s="13">
+        <v>4</v>
+      </c>
+      <c r="K127" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B128" t="s">
+        <v>80</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G128" t="s">
+        <v>23</v>
+      </c>
+      <c r="H128" t="s">
+        <v>24</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J128" s="13">
+        <v>15</v>
+      </c>
+      <c r="K128" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B129" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" t="s">
+        <v>81</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J129" s="13">
+        <v>13</v>
+      </c>
+      <c r="K129" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B130" t="s">
+        <v>80</v>
+      </c>
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>81</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G130" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" t="s">
+        <v>30</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J130" s="13">
+        <v>15</v>
+      </c>
+      <c r="K130" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B131" t="s">
+        <v>80</v>
+      </c>
+      <c r="C131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" t="s">
+        <v>81</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G131" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J131" s="13">
+        <v>14</v>
+      </c>
+      <c r="K131" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B132" t="s">
+        <v>80</v>
+      </c>
+      <c r="C132" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" t="s">
+        <v>81</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G132" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J132" s="13">
+        <v>8</v>
+      </c>
+      <c r="K132" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B133" t="s">
+        <v>80</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>81</v>
+      </c>
+      <c r="F133" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J133" s="19">
+        <v>15</v>
+      </c>
+      <c r="K133" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B134" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>81</v>
+      </c>
+      <c r="F134" t="s">
+        <v>99</v>
+      </c>
+      <c r="G134" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J134" s="13">
+        <v>15</v>
+      </c>
+      <c r="K134" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B135" t="s">
+        <v>80</v>
+      </c>
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>81</v>
+      </c>
+      <c r="F135" t="s">
+        <v>99</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J135" s="13">
+        <v>14</v>
+      </c>
+      <c r="K135" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B136" t="s">
+        <v>80</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>81</v>
+      </c>
+      <c r="F136" t="s">
+        <v>99</v>
+      </c>
+      <c r="G136" t="s">
+        <v>37</v>
+      </c>
+      <c r="H136" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J136" s="13">
+        <v>9</v>
+      </c>
+      <c r="K136" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B137" t="s">
+        <v>80</v>
+      </c>
+      <c r="C137" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>81</v>
+      </c>
+      <c r="F137" t="s">
+        <v>99</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J137" s="13">
+        <v>15</v>
+      </c>
+      <c r="K137" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C138" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>81</v>
+      </c>
+      <c r="F138" t="s">
+        <v>99</v>
+      </c>
+      <c r="G138" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J138" s="13">
+        <v>14</v>
+      </c>
+      <c r="K138" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B139" t="s">
+        <v>80</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>81</v>
+      </c>
+      <c r="F139" t="s">
+        <v>99</v>
+      </c>
+      <c r="G139" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J139" s="13">
+        <v>15</v>
+      </c>
+      <c r="K139" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B140" t="s">
+        <v>80</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
+        <v>81</v>
+      </c>
+      <c r="F140" t="s">
+        <v>99</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J140" s="13">
+        <v>14</v>
+      </c>
+      <c r="K140" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B141" t="s">
+        <v>80</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>81</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J141" s="19">
+        <v>15</v>
+      </c>
+      <c r="K141" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B142" t="s">
+        <v>80</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
+        <v>81</v>
+      </c>
+      <c r="F142" t="s">
+        <v>100</v>
+      </c>
+      <c r="G142" t="s">
+        <v>37</v>
+      </c>
+      <c r="H142" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J142" s="13">
+        <v>15</v>
+      </c>
+      <c r="K142" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B143" t="s">
+        <v>80</v>
+      </c>
+      <c r="C143" t="s">
+        <v>37</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>81</v>
+      </c>
+      <c r="F143" t="s">
+        <v>100</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J143" s="13">
+        <v>12</v>
+      </c>
+      <c r="K143" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B144" t="s">
+        <v>80</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
+        <v>81</v>
+      </c>
+      <c r="F144" t="s">
+        <v>100</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J144" s="13">
+        <v>8</v>
+      </c>
+      <c r="K144" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B145" t="s">
+        <v>80</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>81</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J145" s="19">
+        <v>15</v>
+      </c>
+      <c r="K145" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B146" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>81</v>
+      </c>
+      <c r="F146" t="s">
+        <v>101</v>
+      </c>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J146" s="13">
+        <v>6</v>
+      </c>
+      <c r="K146" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B147" t="s">
+        <v>80</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>81</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J147" s="19">
+        <v>15</v>
+      </c>
+      <c r="K147" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{8CA50A8B-6F5E-42E4-958A-31D28A702E8D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/women/W_2020_01_Letnany.xlsx
+++ b/data/women/W_2020_01_Letnany.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB78369C-C470-4C86-8DB3-8024B773CA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A989283E-A0A4-4766-A630-4516A5BE940D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4344" yWindow="-16572" windowWidth="18624" windowHeight="16392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="-9600" windowWidth="23040" windowHeight="7716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="1" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="3" r:id="rId3"/>
-    <sheet name="pools" sheetId="4" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="1" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="3" r:id="rId4"/>
+    <sheet name="pools" sheetId="4" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">first_round!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">total_rank!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">first_round!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">total_rank!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -392,6 +394,9 @@
   <si>
     <t>DIVIŠOVÁ, ROZ. JÍLKOVÁ Klára</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -468,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -508,6 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,11 +793,2485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48E5DD7-BA93-42F7-861B-52DD981BC63F}">
+  <dimension ref="A1:Q47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="4">
+        <v>37414</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="L2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="21">
+        <f>P2/MAX($P$2:$P$47)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4">
+        <v>37371</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="21">
+        <f t="shared" ref="Q3:Q47" si="0">P3/MAX($P$2:$P$47)</f>
+        <v>2.1739130434782608E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4">
+        <v>39194</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>-13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4">
+        <v>41</v>
+      </c>
+      <c r="P4">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4">
+        <v>36617</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.21739130434782608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4">
+        <v>38260</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <v>-5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6">
+        <v>32</v>
+      </c>
+      <c r="P6">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.78260869565217395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4">
+        <v>37189</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="21">
+        <f t="shared" si="0"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4">
+        <v>37903</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0.4</v>
+      </c>
+      <c r="K8">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="21">
+        <f t="shared" si="0"/>
+        <v>0.45652173913043476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4">
+        <v>32455</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
+      </c>
+      <c r="K9">
+        <v>27</v>
+      </c>
+      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9">
+        <v>23</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="21">
+        <f t="shared" si="0"/>
+        <v>0.43478260869565216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4">
+        <v>37594</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>28</v>
+      </c>
+      <c r="M10">
+        <v>-15</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10">
+        <v>42</v>
+      </c>
+      <c r="P10">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="21">
+        <f t="shared" si="0"/>
+        <v>0.93478260869565222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4">
+        <v>33420</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>-6</v>
+      </c>
+      <c r="N11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11">
+        <v>35</v>
+      </c>
+      <c r="P11">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.80434782608695654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4">
+        <v>33437</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K12">
+        <v>28</v>
+      </c>
+      <c r="L12">
+        <v>17</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="21">
+        <f t="shared" si="0"/>
+        <v>0.54347826086956519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4">
+        <v>37260</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0.4</v>
+      </c>
+      <c r="K13">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>17</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13">
+        <v>26</v>
+      </c>
+      <c r="P13">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="21">
+        <f t="shared" si="0"/>
+        <v>0.63043478260869568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="4">
+        <v>33956</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>-18</v>
+      </c>
+      <c r="N14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14">
+        <v>45</v>
+      </c>
+      <c r="P14">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="21">
+        <f t="shared" si="0"/>
+        <v>0.97826086956521741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="4">
+        <v>34628</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K15">
+        <v>27</v>
+      </c>
+      <c r="L15">
+        <v>19</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="21">
+        <f t="shared" si="0"/>
+        <v>0.28260869565217389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="4">
+        <v>36590</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0.6</v>
+      </c>
+      <c r="K16">
+        <v>21</v>
+      </c>
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="21">
+        <f t="shared" si="0"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="4">
+        <v>36590</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>18</v>
+      </c>
+      <c r="N17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="21">
+        <f t="shared" si="0"/>
+        <v>0.10869565217391304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="4">
+        <v>35863</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.2</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>22</v>
+      </c>
+      <c r="M18">
+        <v>-14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18">
+        <v>38</v>
+      </c>
+      <c r="P18">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="21">
+        <f t="shared" si="0"/>
+        <v>0.84782608695652173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="4">
+        <v>34873</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>-12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19">
+        <v>43</v>
+      </c>
+      <c r="P19">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="21">
+        <f t="shared" si="0"/>
+        <v>0.2608695652173913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="4">
+        <v>36889</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>0.6</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20">
+        <v>22</v>
+      </c>
+      <c r="P20">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="21">
+        <f t="shared" si="0"/>
+        <v>0.71739130434782605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="4">
+        <v>26851</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K21">
+        <v>15</v>
+      </c>
+      <c r="L21">
+        <v>27</v>
+      </c>
+      <c r="M21">
+        <v>-12</v>
+      </c>
+      <c r="N21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21">
+        <v>39</v>
+      </c>
+      <c r="P21">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="21">
+        <f t="shared" si="0"/>
+        <v>0.86956521739130432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="4">
+        <v>36526</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K22">
+        <v>22</v>
+      </c>
+      <c r="L22">
+        <v>28</v>
+      </c>
+      <c r="M22">
+        <v>-6</v>
+      </c>
+      <c r="N22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22">
+        <v>33</v>
+      </c>
+      <c r="P22">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="21">
+        <f t="shared" si="0"/>
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="4">
+        <v>35681</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K23">
+        <v>16</v>
+      </c>
+      <c r="L23">
+        <v>29</v>
+      </c>
+      <c r="M23">
+        <v>-13</v>
+      </c>
+      <c r="N23" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23">
+        <v>40</v>
+      </c>
+      <c r="P23">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="21">
+        <f t="shared" si="0"/>
+        <v>0.89130434782608692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="4">
+        <v>36091</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>0.6</v>
+      </c>
+      <c r="K24">
+        <v>21</v>
+      </c>
+      <c r="L24">
+        <v>16</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24">
+        <v>20</v>
+      </c>
+      <c r="P24">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="21">
+        <f t="shared" si="0"/>
+        <v>0.2391304347826087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="4">
+        <v>35259</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.2</v>
+      </c>
+      <c r="K25">
+        <v>15</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>-7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25">
+        <v>36</v>
+      </c>
+      <c r="P25">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="21">
+        <f t="shared" si="0"/>
+        <v>0.69565217391304346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="4">
+        <v>37200</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>11</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>-14</v>
+      </c>
+      <c r="N26" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26">
+        <v>44</v>
+      </c>
+      <c r="P26">
+        <v>44</v>
+      </c>
+      <c r="Q26" s="21">
+        <f t="shared" si="0"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="4">
+        <v>36404</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27">
+        <v>17</v>
+      </c>
+      <c r="P27">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="21">
+        <f t="shared" si="0"/>
+        <v>0.56521739130434778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="4">
+        <v>38167</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>21</v>
+      </c>
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>-6</v>
+      </c>
+      <c r="N28" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28">
+        <v>24</v>
+      </c>
+      <c r="P28">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="21">
+        <f t="shared" si="0"/>
+        <v>0.60869565217391308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="4">
+        <v>36130</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K29">
+        <v>27</v>
+      </c>
+      <c r="L29">
+        <v>13</v>
+      </c>
+      <c r="M29">
+        <v>14</v>
+      </c>
+      <c r="N29" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="21">
+        <f t="shared" si="0"/>
+        <v>0.13043478260869565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="4">
+        <v>37401</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K30">
+        <v>24</v>
+      </c>
+      <c r="L30">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30">
+        <v>19</v>
+      </c>
+      <c r="P30">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="21">
+        <f t="shared" si="0"/>
+        <v>0.58695652173913049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="4">
+        <v>36841</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K31">
+        <v>23</v>
+      </c>
+      <c r="L31">
+        <v>18</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>78</v>
+      </c>
+      <c r="O31">
+        <v>18</v>
+      </c>
+      <c r="P31">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="21">
+        <f t="shared" si="0"/>
+        <v>0.34782608695652173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="4">
+        <v>36310</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K32">
+        <v>28</v>
+      </c>
+      <c r="L32">
+        <v>17</v>
+      </c>
+      <c r="M32">
+        <v>11</v>
+      </c>
+      <c r="N32" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32">
+        <v>12</v>
+      </c>
+      <c r="P32">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="21">
+        <f t="shared" si="0"/>
+        <v>0.32608695652173914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="4">
+        <v>37444</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K33">
+        <v>29</v>
+      </c>
+      <c r="L33">
+        <v>18</v>
+      </c>
+      <c r="M33">
+        <v>11</v>
+      </c>
+      <c r="N33" t="s">
+        <v>78</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="21">
+        <f t="shared" si="0"/>
+        <v>0.15217391304347827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="4">
+        <v>36481</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K34">
+        <v>28</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>8</v>
+      </c>
+      <c r="N34" t="s">
+        <v>78</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="21">
+        <f t="shared" si="0"/>
+        <v>0.36956521739130432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="4">
+        <v>30846</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K35">
+        <v>27</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>78</v>
+      </c>
+      <c r="O35">
+        <v>16</v>
+      </c>
+      <c r="P35">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="21">
+        <f t="shared" si="0"/>
+        <v>0.41304347826086957</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="4">
+        <v>36325</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>30</v>
+      </c>
+      <c r="L36">
+        <v>13</v>
+      </c>
+      <c r="M36">
+        <v>17</v>
+      </c>
+      <c r="N36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="21">
+        <f t="shared" si="0"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="4">
+        <v>36101</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0.4</v>
+      </c>
+      <c r="K37">
+        <v>13</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>-10</v>
+      </c>
+      <c r="N37" t="s">
+        <v>78</v>
+      </c>
+      <c r="O37">
+        <v>29</v>
+      </c>
+      <c r="P37">
+        <v>34</v>
+      </c>
+      <c r="Q37" s="21">
+        <f t="shared" si="0"/>
+        <v>0.73913043478260865</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="4">
+        <v>34911</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>0.8</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>17</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>78</v>
+      </c>
+      <c r="O38">
+        <v>11</v>
+      </c>
+      <c r="P38">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="21">
+        <f t="shared" si="0"/>
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="4">
+        <v>35707</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>0.8</v>
+      </c>
+      <c r="K39">
+        <v>24</v>
+      </c>
+      <c r="L39">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39" t="s">
+        <v>78</v>
+      </c>
+      <c r="O39">
+        <v>10</v>
+      </c>
+      <c r="P39">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="21">
+        <f t="shared" si="0"/>
+        <v>0.19565217391304349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="4">
+        <v>36429</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>0.8</v>
+      </c>
+      <c r="K40">
+        <v>24</v>
+      </c>
+      <c r="L40">
+        <v>13</v>
+      </c>
+      <c r="M40">
+        <v>11</v>
+      </c>
+      <c r="N40" t="s">
+        <v>78</v>
+      </c>
+      <c r="O40">
+        <v>9</v>
+      </c>
+      <c r="P40">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="21">
+        <f t="shared" si="0"/>
+        <v>0.17391304347826086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="4">
+        <v>36945</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0.4</v>
+      </c>
+      <c r="K41">
+        <v>18</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>-1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>78</v>
+      </c>
+      <c r="O41">
+        <v>27</v>
+      </c>
+      <c r="P41">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="21">
+        <f t="shared" si="0"/>
+        <v>0.65217391304347827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="4">
+        <v>38729</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K42">
+        <v>19</v>
+      </c>
+      <c r="L42">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>-4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>78</v>
+      </c>
+      <c r="O42">
+        <v>31</v>
+      </c>
+      <c r="P42">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="21">
+        <f t="shared" si="0"/>
+        <v>0.76086956521739135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="4">
+        <v>37171</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0.4</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+      <c r="L43">
+        <v>22</v>
+      </c>
+      <c r="M43">
+        <v>-2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O43">
+        <v>28</v>
+      </c>
+      <c r="P43">
+        <v>22</v>
+      </c>
+      <c r="Q43" s="21">
+        <f t="shared" si="0"/>
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="4">
+        <v>37441</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K44">
+        <v>25</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="N44" t="s">
+        <v>78</v>
+      </c>
+      <c r="O44">
+        <v>15</v>
+      </c>
+      <c r="P44">
+        <v>18</v>
+      </c>
+      <c r="Q44" s="21">
+        <f t="shared" si="0"/>
+        <v>0.39130434782608697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="4">
+        <v>38001</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>30</v>
+      </c>
+      <c r="M45">
+        <v>-20</v>
+      </c>
+      <c r="N45" t="s">
+        <v>78</v>
+      </c>
+      <c r="O45">
+        <v>46</v>
+      </c>
+      <c r="P45">
+        <v>46</v>
+      </c>
+      <c r="Q45" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="4">
+        <v>33330</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0.2</v>
+      </c>
+      <c r="K46">
+        <v>16</v>
+      </c>
+      <c r="L46">
+        <v>24</v>
+      </c>
+      <c r="M46">
+        <v>-8</v>
+      </c>
+      <c r="N46" t="s">
+        <v>78</v>
+      </c>
+      <c r="O46">
+        <v>37</v>
+      </c>
+      <c r="P46">
+        <v>38</v>
+      </c>
+      <c r="Q46" s="21">
+        <f t="shared" si="0"/>
+        <v>0.82608695652173914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>43855</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="4">
+        <v>38143</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K47">
+        <v>17</v>
+      </c>
+      <c r="L47">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <v>-9</v>
+      </c>
+      <c r="N47" t="s">
+        <v>78</v>
+      </c>
+      <c r="O47">
+        <v>34</v>
+      </c>
+      <c r="P47">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="21">
+        <f t="shared" si="0"/>
+        <v>0.67391304347826086</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{B48E5DD7-BA93-42F7-861B-52DD981BC63F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1661,12 +4141,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558FCCD2-A2D3-4EBC-B4CC-652FA6BD1D5F}">
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,31 +4206,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>81</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>78</v>
@@ -1767,10 +4247,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1779,19 +4259,19 @@
         <v>81</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>78</v>
@@ -1808,10 +4288,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1820,19 +4300,19 @@
         <v>81</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>-13</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -1849,31 +4329,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
         <v>78</v>
@@ -1890,31 +4370,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.83299999999999996</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I6">
-        <v>14</v>
+        <v>-5</v>
       </c>
       <c r="J6" t="s">
         <v>78</v>
@@ -1931,10 +4411,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1946,16 +4426,16 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>0.83299999999999996</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>78</v>
@@ -1972,31 +4452,31 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.83299999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>20</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>78</v>
@@ -2013,31 +4493,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.83299999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
         <v>27</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -2054,31 +4534,31 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.8</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I10">
-        <v>11</v>
+        <v>-15</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -2095,31 +4575,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -2136,13 +4616,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -2151,16 +4631,16 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>0.8</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H12">
         <v>17</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -2177,31 +4657,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.66700000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="G13">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>17</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -2218,31 +4698,31 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.66700000000000004</v>
+        <v>0</v>
       </c>
       <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
         <v>28</v>
       </c>
-      <c r="H14">
-        <v>17</v>
-      </c>
       <c r="I14">
-        <v>11</v>
+        <v>-18</v>
       </c>
       <c r="J14" t="s">
         <v>78</v>
@@ -2259,31 +4739,31 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>0.66700000000000004</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
         <v>78</v>
@@ -2300,10 +4780,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -2312,19 +4792,19 @@
         <v>81</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.66700000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="G16">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
         <v>78</v>
@@ -2341,10 +4821,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -2353,19 +4833,19 @@
         <v>81</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>0.66700000000000004</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
         <v>78</v>
@@ -2382,31 +4862,31 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.66700000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G18">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>-14</v>
       </c>
       <c r="J18" t="s">
         <v>78</v>
@@ -2423,31 +4903,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.66700000000000004</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="J19" t="s">
         <v>78</v>
@@ -2464,31 +4944,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.66700000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="G20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>78</v>
@@ -2505,31 +4985,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G21">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="J21" t="s">
         <v>78</v>
@@ -2546,31 +5026,31 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.6</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="J22" t="s">
         <v>78</v>
@@ -2587,31 +5067,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="J23" t="s">
         <v>78</v>
@@ -2628,10 +5108,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2643,16 +5123,16 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G24">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24" t="s">
         <v>78</v>
@@ -2669,31 +5149,31 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G25">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I25">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="J25" t="s">
         <v>78</v>
@@ -2710,31 +5190,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>81</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="J26" t="s">
         <v>78</v>
@@ -2751,31 +5231,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>0.4</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G27">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27" t="s">
         <v>78</v>
@@ -2792,31 +5272,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="J28" t="s">
         <v>78</v>
@@ -2833,10 +5313,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -2845,19 +5325,19 @@
         <v>81</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>0.4</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I29">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
         <v>78</v>
@@ -2874,31 +5354,31 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>0.4</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G30">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H30">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I30">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>78</v>
@@ -2915,31 +5395,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>78</v>
@@ -2956,10 +5436,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -2968,19 +5448,19 @@
         <v>81</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G32">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I32">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="J32" t="s">
         <v>78</v>
@@ -2997,31 +5477,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>0.33300000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G33">
+        <v>29</v>
+      </c>
+      <c r="H33">
         <v>18</v>
       </c>
-      <c r="H33">
-        <v>23</v>
-      </c>
       <c r="I33">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="J33" t="s">
         <v>78</v>
@@ -3038,31 +5518,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>0.33300000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G34">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H34">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I34">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="J34" t="s">
         <v>78</v>
@@ -3079,31 +5559,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G35">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H35">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I35">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="J35" t="s">
         <v>78</v>
@@ -3120,31 +5600,31 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
       </c>
       <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
         <v>1</v>
       </c>
-      <c r="F36">
-        <v>0.2</v>
-      </c>
       <c r="G36">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I36">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="J36" t="s">
         <v>78</v>
@@ -3161,31 +5641,31 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I37">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="J37" t="s">
         <v>78</v>
@@ -3202,31 +5682,31 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
         <v>81</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G38">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I38">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
         <v>78</v>
@@ -3243,31 +5723,31 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H39">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I39">
-        <v>-14</v>
+        <v>10</v>
       </c>
       <c r="J39" t="s">
         <v>78</v>
@@ -3284,31 +5764,31 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
         <v>81</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>0.16700000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G40">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H40">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I40">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="J40" t="s">
         <v>78</v>
@@ -3325,31 +5805,31 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
         <v>81</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>0.16700000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G41">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H41">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I41">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="J41" t="s">
         <v>78</v>
@@ -3366,10 +5846,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -3378,19 +5858,19 @@
         <v>81</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>0.16700000000000001</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G42">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H42">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I42">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="J42" t="s">
         <v>78</v>
@@ -3407,31 +5887,31 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
         <v>81</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>0.16700000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G43">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H43">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I43">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="J43" t="s">
         <v>78</v>
@@ -3448,31 +5928,31 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
         <v>81</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G44">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H44">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I44">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="J44" t="s">
         <v>78</v>
@@ -3489,13 +5969,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
         <v>81</v>
@@ -3507,13 +5987,13 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H45">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I45">
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="J45" t="s">
         <v>78</v>
@@ -3530,10 +6010,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
@@ -3542,19 +6022,19 @@
         <v>81</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H46">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I46">
-        <v>-18</v>
+        <v>-8</v>
       </c>
       <c r="J46" t="s">
         <v>78</v>
@@ -3571,31 +6051,31 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I47">
-        <v>-20</v>
+        <v>-9</v>
       </c>
       <c r="J47" t="s">
         <v>78</v>
@@ -3613,7 +6093,7 @@
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{558FCCD2-A2D3-4EBC-B4CC-652FA6BD1D5F}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M47">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3621,12 +6101,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D9A26E-A121-406D-8CB8-A3951E8CD01F}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3667,19 +6147,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>81</v>
       </c>
       <c r="E2" s="4">
-        <v>37371</v>
+        <v>37414</v>
       </c>
       <c r="F2" s="4">
         <v>43855</v>
@@ -3693,10 +6173,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -3705,7 +6185,7 @@
         <v>81</v>
       </c>
       <c r="E3" s="4">
-        <v>36325</v>
+        <v>37371</v>
       </c>
       <c r="F3" s="4">
         <v>43855</v>
@@ -3719,10 +6199,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -3731,7 +6211,7 @@
         <v>81</v>
       </c>
       <c r="E4" s="4">
-        <v>37189</v>
+        <v>39194</v>
       </c>
       <c r="F4" s="4">
         <v>43855</v>
@@ -3745,19 +6225,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="4">
-        <v>36590</v>
+        <v>36617</v>
       </c>
       <c r="F5" s="4">
         <v>43855</v>
@@ -3771,19 +6251,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="4">
-        <v>36590</v>
+        <v>38260</v>
       </c>
       <c r="F6" s="4">
         <v>43855</v>
@@ -3797,10 +6277,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -3809,7 +6289,7 @@
         <v>81</v>
       </c>
       <c r="E7" s="4">
-        <v>36130</v>
+        <v>37189</v>
       </c>
       <c r="F7" s="4">
         <v>43855</v>
@@ -3823,10 +6303,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -3835,7 +6315,7 @@
         <v>81</v>
       </c>
       <c r="E8" s="4">
-        <v>37444</v>
+        <v>37903</v>
       </c>
       <c r="F8" s="4">
         <v>43855</v>
@@ -3849,19 +6329,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="4">
-        <v>36429</v>
+        <v>32455</v>
       </c>
       <c r="F9" s="4">
         <v>43855</v>
@@ -3875,19 +6355,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="4">
-        <v>35707</v>
+        <v>37594</v>
       </c>
       <c r="F10" s="4">
         <v>43855</v>
@@ -3901,19 +6381,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="4">
-        <v>36617</v>
+        <v>33420</v>
       </c>
       <c r="F11" s="4">
         <v>43855</v>
@@ -3927,10 +6407,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -3939,7 +6419,7 @@
         <v>81</v>
       </c>
       <c r="E12" s="4">
-        <v>36091</v>
+        <v>33437</v>
       </c>
       <c r="F12" s="4">
         <v>43855</v>
@@ -3953,19 +6433,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
       </c>
       <c r="E13" s="4">
-        <v>34873</v>
+        <v>37260</v>
       </c>
       <c r="F13" s="4">
         <v>43855</v>
@@ -3979,19 +6459,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
       </c>
       <c r="E14" s="4">
-        <v>34628</v>
+        <v>33956</v>
       </c>
       <c r="F14" s="4">
         <v>43855</v>
@@ -4005,19 +6485,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="4">
-        <v>34911</v>
+        <v>34628</v>
       </c>
       <c r="F15" s="4">
         <v>43855</v>
@@ -4031,19 +6511,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="4">
-        <v>36310</v>
+        <v>36590</v>
       </c>
       <c r="F16" s="4">
         <v>43855</v>
@@ -4057,19 +6537,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="4">
-        <v>36841</v>
+        <v>36590</v>
       </c>
       <c r="F17" s="4">
         <v>43855</v>
@@ -4083,19 +6563,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="4">
-        <v>36481</v>
+        <v>35863</v>
       </c>
       <c r="F18" s="4">
         <v>43855</v>
@@ -4109,19 +6589,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="4">
-        <v>37441</v>
+        <v>34873</v>
       </c>
       <c r="F19" s="4">
         <v>43855</v>
@@ -4135,19 +6615,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="4">
-        <v>30846</v>
+        <v>36889</v>
       </c>
       <c r="F20" s="4">
         <v>43855</v>
@@ -4161,19 +6641,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="4">
-        <v>32455</v>
+        <v>26851</v>
       </c>
       <c r="F21" s="4">
         <v>43855</v>
@@ -4187,19 +6667,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4">
-        <v>37903</v>
+        <v>36526</v>
       </c>
       <c r="F22" s="4">
         <v>43855</v>
@@ -4213,19 +6693,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
       </c>
       <c r="E23" s="4">
-        <v>37171</v>
+        <v>35681</v>
       </c>
       <c r="F23" s="4">
         <v>43855</v>
@@ -4239,19 +6719,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
       </c>
       <c r="E24" s="4">
-        <v>37414</v>
+        <v>36091</v>
       </c>
       <c r="F24" s="4">
         <v>43855</v>
@@ -4265,19 +6745,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E25" s="4">
-        <v>36526</v>
+        <v>35259</v>
       </c>
       <c r="F25" s="4">
         <v>43855</v>
@@ -4291,19 +6771,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>81</v>
       </c>
       <c r="E26" s="4">
-        <v>33437</v>
+        <v>37200</v>
       </c>
       <c r="F26" s="4">
         <v>43855</v>
@@ -4343,19 +6823,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
       </c>
       <c r="E28" s="4">
-        <v>37401</v>
+        <v>38167</v>
       </c>
       <c r="F28" s="4">
         <v>43855</v>
@@ -4369,19 +6849,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
       </c>
       <c r="E29" s="4">
-        <v>38167</v>
+        <v>36130</v>
       </c>
       <c r="F29" s="4">
         <v>43855</v>
@@ -4395,19 +6875,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
       </c>
       <c r="E30" s="4">
-        <v>37260</v>
+        <v>37401</v>
       </c>
       <c r="F30" s="4">
         <v>43855</v>
@@ -4421,10 +6901,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
@@ -4433,7 +6913,7 @@
         <v>81</v>
       </c>
       <c r="E31" s="4">
-        <v>36945</v>
+        <v>36841</v>
       </c>
       <c r="F31" s="4">
         <v>43855</v>
@@ -4447,19 +6927,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
       </c>
       <c r="E32" s="4">
-        <v>38143</v>
+        <v>36310</v>
       </c>
       <c r="F32" s="4">
         <v>43855</v>
@@ -4473,19 +6953,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
       </c>
       <c r="E33" s="4">
-        <v>35259</v>
+        <v>37444</v>
       </c>
       <c r="F33" s="4">
         <v>43855</v>
@@ -4499,19 +6979,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
       </c>
       <c r="E34" s="4">
-        <v>36889</v>
+        <v>36481</v>
       </c>
       <c r="F34" s="4">
         <v>43855</v>
@@ -4525,19 +7005,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
       </c>
       <c r="E35" s="4">
-        <v>36101</v>
+        <v>30846</v>
       </c>
       <c r="F35" s="4">
         <v>43855</v>
@@ -4551,10 +7031,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -4563,7 +7043,7 @@
         <v>81</v>
       </c>
       <c r="E36" s="4">
-        <v>38729</v>
+        <v>36325</v>
       </c>
       <c r="F36" s="4">
         <v>43855</v>
@@ -4577,19 +7057,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
       </c>
       <c r="E37" s="4">
-        <v>38260</v>
+        <v>36101</v>
       </c>
       <c r="F37" s="4">
         <v>43855</v>
@@ -4603,19 +7083,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
         <v>81</v>
       </c>
       <c r="E38" s="4">
-        <v>33420</v>
+        <v>34911</v>
       </c>
       <c r="F38" s="4">
         <v>43855</v>
@@ -4629,19 +7109,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
       </c>
       <c r="E39" s="4">
-        <v>33330</v>
+        <v>35707</v>
       </c>
       <c r="F39" s="4">
         <v>43855</v>
@@ -4655,19 +7135,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
         <v>81</v>
       </c>
       <c r="E40" s="4">
-        <v>35863</v>
+        <v>36429</v>
       </c>
       <c r="F40" s="4">
         <v>43855</v>
@@ -4681,19 +7161,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
         <v>81</v>
       </c>
       <c r="E41" s="4">
-        <v>26851</v>
+        <v>36945</v>
       </c>
       <c r="F41" s="4">
         <v>43855</v>
@@ -4707,19 +7187,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>81</v>
       </c>
       <c r="E42" s="4">
-        <v>35681</v>
+        <v>38729</v>
       </c>
       <c r="F42" s="4">
         <v>43855</v>
@@ -4733,10 +7213,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -4745,7 +7225,7 @@
         <v>81</v>
       </c>
       <c r="E43" s="4">
-        <v>39194</v>
+        <v>37171</v>
       </c>
       <c r="F43" s="4">
         <v>43855</v>
@@ -4759,19 +7239,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
         <v>81</v>
       </c>
       <c r="E44" s="4">
-        <v>37594</v>
+        <v>37441</v>
       </c>
       <c r="F44" s="4">
         <v>43855</v>
@@ -4785,19 +7265,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
         <v>81</v>
       </c>
       <c r="E45" s="4">
-        <v>37200</v>
+        <v>38001</v>
       </c>
       <c r="F45" s="4">
         <v>43855</v>
@@ -4811,10 +7291,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
@@ -4823,7 +7303,7 @@
         <v>81</v>
       </c>
       <c r="E46" s="4">
-        <v>33956</v>
+        <v>33330</v>
       </c>
       <c r="F46" s="4">
         <v>43855</v>
@@ -4837,19 +7317,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
       </c>
       <c r="E47" s="4">
-        <v>38001</v>
+        <v>38143</v>
       </c>
       <c r="F47" s="4">
         <v>43855</v>
@@ -4862,13 +7342,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{B3D9A26E-A121-406D-8CB8-A3951E8CD01F}"/>
+  <autoFilter ref="A1:H1" xr:uid="{B3D9A26E-A121-406D-8CB8-A3951E8CD01F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A93ADA4-6FC1-44A1-B0AE-1F99190B4493}">
   <dimension ref="A1:K260"/>
   <sheetViews>
@@ -13962,7 +16446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA50A8B-6F5E-42E4-958A-31D28A702E8D}">
   <dimension ref="A1:K148"/>
   <sheetViews>
